--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -32,9 +32,6 @@
     <t>签证种类</t>
   </si>
   <si>
-    <t>※个人，团体，三年，五年</t>
-  </si>
-  <si>
     <t>日本入境日期</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>个人</t>
+  </si>
+  <si>
+    <t>※个人，三年，五年</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,7 +891,7 @@
   <dimension ref="A2:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,18 +907,18 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,15 +942,15 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="15">
         <v>42348</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="8" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="15">
         <v>42363</v>
@@ -969,31 +969,31 @@
     </row>
     <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1001,25 +1001,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="18">
         <v>29441</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1132,18 +1132,18 @@
     </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
@@ -1152,10 +1152,10 @@
         <v>42348</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1164,10 +1164,10 @@
         <v>42349</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1404,33 +1404,33 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"个人,团体,三年多次,五年多次"</formula1>
+      <formula1>"个人,三年多次,五年多次"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1456,74 +1456,74 @@
     <row r="2" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="3:4" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -130,12 +130,6 @@
     <t>宿  泊  先</t>
   </si>
   <si>
-    <t>NH292 (1000-1445) 便にて成⽥空港へ。到着後、ホテルへ。</t>
-  </si>
-  <si>
-    <t>〒106-0032 東京都港区六本木7丁目 18-11 国際ホテル</t>
-  </si>
-  <si>
     <t>東京ディズニーランド内を観光。</t>
   </si>
   <si>
@@ -193,6 +187,13 @@
   <si>
     <t>〒106-00 東京都港区六本⽊7-18-5
 ソフイアビル 212号室</t>
+  </si>
+  <si>
+    <t>〒106-0032 東京都港区六本木7丁目 
+18-11 国際ホテル</t>
+  </si>
+  <si>
+    <t>NH292 (1000-1445) 便にて成田空港へ。到着後、ホテルへ。</t>
   </si>
 </sst>
 </file>
@@ -478,6 +479,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,16 +499,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1132,10 +1133,10 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1202,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1212,10 +1213,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1225,10 +1226,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1238,10 +1239,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1251,10 +1252,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1264,10 +1265,10 @@
     <row r="23" spans="1:7" ht="28.2" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1277,10 +1278,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8055,52 +8056,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="37" t="str">
+      <c r="A3" s="38" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
         <v>（2015年12月10日 〜 2015年12月25日）</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="37" t="str">
+      <c r="A4" s="38" t="str">
         <f>"（旅行参加者"&amp;MAX(A6:A15)&amp;"名、"&amp;"代表者"&amp;B6&amp;"、他"&amp;MAX(A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8283,55 +8284,55 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A17" s="34" t="str">
+      <c r="A17" s="35" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A18" s="34" t="str">
+      <c r="A18" s="35" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A19" s="34" t="str">
+      <c r="A19" s="35" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="73.2" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="7"/>
@@ -14205,7 +14206,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -14217,36 +14218,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1">
-      <c r="A2" s="40" t="str">
+      <c r="A2" s="43" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
         <v>（2015年12月10日 〜 2015年12月25日）</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A3" s="41" t="str">
+      <c r="A3" s="40" t="str">
         <f>"（旅行参加者"&amp;MAX(査証人名簿!A6:A15)&amp;"名、"&amp;"代表者"&amp;査証人名簿!B6&amp;"、他"&amp;MAX(査証人名簿!A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -14256,10 +14257,10 @@
         <v>42348</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
@@ -14268,10 +14269,10 @@
         <v>42349</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
@@ -14512,34 +14513,34 @@
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="39" t="str">
+      <c r="A37" s="42" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="39" t="str">
+      <c r="A38" s="42" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="39" t="str">
+      <c r="A39" s="42" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:3" ht="83.4" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="540" windowWidth="14112" windowHeight="10068" activeTab="2"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="130407"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -199,14 +204,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -221,57 +226,65 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Ms mincho"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
     </font>
     <font>
@@ -290,34 +303,40 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF969696"/>
+      <color indexed="55"/>
       <name val="宋体"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="ZClosurez"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -440,29 +459,29 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -513,7 +532,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -553,7 +572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -597,7 +616,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -646,7 +665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -690,7 +709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -999,22 +1018,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,27 +1122,27 @@
         <v>14</v>
       </c>
       <c r="C8" s="25">
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="16.8" customHeight="1">
+    <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="25">
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="1:7" ht="17.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1262,7 +1281,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="28.2" customHeight="1">
+    <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
         <v>48</v>
@@ -8021,6 +8040,7 @@
       <c r="G986" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="22"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"个人,三年多次,五年多次"</formula1>
@@ -8030,28 +8050,32 @@
     <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.296875" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="5.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.296875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8080,7 +8104,7 @@
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
       <c r="A3" s="38" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -8322,7 +8346,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
     </row>
-    <row r="20" spans="1:8" ht="73.2" customHeight="1">
+    <row r="20" spans="1:8" ht="73.25" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -14195,25 +14219,30 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="30.69921875" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
     <col min="4" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14227,7 +14256,7 @@
     <row r="2" spans="1:3" ht="21" customHeight="1">
       <c r="A2" s="43" t="str">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2015年12月10日 〜 2015年12月25日）</v>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -14254,7 +14283,7 @@
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="16">
         <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>42348</v>
+        <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>55</v>
@@ -14266,7 +14295,7 @@
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
       <c r="A6" s="16">
         <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>42349</v>
+        <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>36</v>
@@ -14278,7 +14307,7 @@
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
       <c r="A7" s="16">
         <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>42350</v>
+        <v>43081</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -14286,7 +14315,7 @@
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
       <c r="A8" s="16">
         <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>42351</v>
+        <v>43082</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -14294,7 +14323,7 @@
     <row r="9" spans="1:3" ht="42" customHeight="1">
       <c r="A9" s="16">
         <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>42352</v>
+        <v>43083</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -14302,7 +14331,7 @@
     <row r="10" spans="1:3" ht="42" customHeight="1">
       <c r="A10" s="16">
         <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>42353</v>
+        <v>43084</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -14310,7 +14339,7 @@
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
       <c r="A11" s="16">
         <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>42354</v>
+        <v>43085</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -14318,7 +14347,7 @@
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
       <c r="A12" s="16">
         <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>42355</v>
+        <v>43086</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -14326,7 +14355,7 @@
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
       <c r="A13" s="16">
         <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>42356</v>
+        <v>43087</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -14334,7 +14363,7 @@
     <row r="14" spans="1:3" ht="42" customHeight="1">
       <c r="A14" s="16">
         <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>42357</v>
+        <v>43088</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -14342,7 +14371,7 @@
     <row r="15" spans="1:3" ht="42" customHeight="1">
       <c r="A15" s="16">
         <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>42358</v>
+        <v>43089</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -14350,7 +14379,7 @@
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
       <c r="A16" s="16">
         <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>42359</v>
+        <v>43090</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -14358,7 +14387,7 @@
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
       <c r="A17" s="16">
         <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>42360</v>
+        <v>43091</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -14366,7 +14395,7 @@
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
       <c r="A18" s="16">
         <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>42361</v>
+        <v>43092</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -14374,7 +14403,7 @@
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
       <c r="A19" s="16">
         <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>42362</v>
+        <v>43093</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -14382,7 +14411,7 @@
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
       <c r="A20" s="16">
         <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>42363</v>
+        <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -14491,7 +14520,7 @@
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="1:3" ht="39.6" customHeight="1">
+    <row r="34" spans="1:3" ht="39.5" customHeight="1">
       <c r="A34" s="19" t="str">
         <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
         <v/>
@@ -14499,7 +14528,7 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="1:3" ht="40.799999999999997" customHeight="1">
+    <row r="35" spans="1:3" ht="40.75" customHeight="1">
       <c r="A35" s="20" t="str">
         <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
         <v/>
@@ -14536,7 +14565,7 @@
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
     </row>
-    <row r="40" spans="1:3" ht="83.4" customHeight="1">
+    <row r="40" spans="1:3" ht="83.5" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
@@ -19366,8 +19395,13 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="22"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -146,12 +146,6 @@
 7-18-5 ソフイアビル 212号室
 担当者：東木慶新
 電話：03-3470-6851</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -572,7 +566,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +610,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +659,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +703,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1022,7 +1016,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1151,12 +1145,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>39</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1222,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1232,10 +1222,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1245,10 +1235,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,10 +1248,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1271,10 +1261,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1284,10 +1274,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1297,10 +1287,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8046,9 +8036,6 @@
       <formula1>"个人,三年多次,五年多次"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -14286,10 +14273,10 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="22400" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>签证种类</t>
-  </si>
-  <si>
-    <t>个人</t>
   </si>
   <si>
     <t>日本入境日期</t>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>NH292 (1000-1445) 便にて成田空港へ。到着後、ホテルへ。</t>
+  </si>
+  <si>
+    <t>个人</t>
   </si>
 </sst>
 </file>
@@ -572,7 +572,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +616,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +665,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +709,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1119,7 +1119,7 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="25">
         <v>43079</v>
@@ -1132,7 +1132,7 @@
     <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="25">
         <v>43094</v>
@@ -1152,10 +1152,10 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1222,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1232,10 +1232,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1245,10 +1245,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,10 +1258,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1271,10 +1271,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1284,10 +1284,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1297,10 +1297,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8043,7 +8043,7 @@
   <phoneticPr fontId="22"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"个人,三年多次,五年多次"</formula1>
+      <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -8081,7 +8081,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -8129,28 +8129,28 @@
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
@@ -8159,25 +8159,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="13">
         <v>29441</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
@@ -8352,7 +8352,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
@@ -14248,7 +14248,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -14271,13 +14271,13 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="32" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
@@ -14286,10 +14286,10 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
@@ -14298,10 +14298,10 @@
         <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
@@ -14569,7 +14569,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="540" windowWidth="14120" windowHeight="10060"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="22400" windowHeight="10060"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>签证种类</t>
-  </si>
-  <si>
-    <t>个人</t>
   </si>
   <si>
     <t>日本入境日期</t>
@@ -148,6 +145,12 @@
 電話：03-3470-6851</t>
   </si>
   <si>
+    <t>http://123.56.136.55/code</t>
+  </si>
+  <si>
+    <t>※编号请查询</t>
+  </si>
+  <si>
     <t>性别</t>
   </si>
   <si>
@@ -193,6 +196,9 @@
   </si>
   <si>
     <t>NH292 (1000-1445) 便にて成田空港へ。到着後、ホテルへ。</t>
+  </si>
+  <si>
+    <t>个人</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1022,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1103,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1113,7 +1119,7 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="25">
         <v>43079</v>
@@ -1126,7 +1132,7 @@
     <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="25">
         <v>43094</v>
@@ -1145,8 +1151,12 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1212,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1222,10 +1232,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1235,10 +1245,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1248,10 +1258,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1261,10 +1271,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1274,10 +1284,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1287,10 +1297,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8033,9 +8043,12 @@
   <phoneticPr fontId="22"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"个人,三年多次,五年多次"</formula1>
+      <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8068,7 +8081,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -8116,28 +8129,28 @@
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
@@ -8146,25 +8159,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="F6" s="13">
         <v>29441</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
@@ -8339,7 +8352,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
@@ -14235,7 +14248,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -14258,13 +14271,13 @@
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
       <c r="A4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="32" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
@@ -14273,10 +14286,10 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
@@ -14285,10 +14298,10 @@
         <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
@@ -14556,7 +14569,7 @@
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -143,12 +143,6 @@
 7-18-5 ソフイアビル 212号室
 担当者：東木慶新
 電話：03-3470-6851</t>
-  </si>
-  <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
   </si>
   <si>
     <t>性别</t>
@@ -572,7 +566,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +610,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +659,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +703,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1022,7 +1016,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1109,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1151,12 +1145,8 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>38</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1222,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1232,10 +1222,10 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1245,10 +1235,10 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1258,10 +1248,10 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1271,10 +1261,10 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1284,10 +1274,10 @@
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1297,10 +1287,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8046,9 +8036,6 @@
       <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -14286,10 +14273,10 @@
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="540" windowWidth="22400" windowHeight="10060"/>
@@ -11,9 +11,9 @@
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -145,12 +145,6 @@
 電話：03-3470-6851</t>
   </si>
   <si>
-    <t>http://123.56.136.55/code</t>
-  </si>
-  <si>
-    <t>※编号请查询</t>
-  </si>
-  <si>
     <t>性别</t>
   </si>
   <si>
@@ -200,15 +194,65 @@
   <si>
     <t>个人</t>
   </si>
+  <si>
+    <t>访问城市</t>
+    <rPh sb="0" eb="2">
+      <t>faンg weン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>cheンg shi</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>沖縄県,宮城県</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>(沖縄県,青森県,岩手県,宮城県,秋田県,山形県,福島県)</t>
+    <rPh sb="1" eb="4">
+      <t>オキナワケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>アオモリケン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>イワテケン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミヤギケン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>アキタケン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヤマガタケン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>フクシマケン</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>住宿城市</t>
+    <rPh sb="0" eb="2">
+      <t>zhu su</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>cheンg shi</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>沖縄県</t>
+    <phoneticPr fontId="21"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -302,11 +346,6 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="55"/>
-      <name val="宋体"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
@@ -337,6 +376,12 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,23 +460,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -459,43 +504,42 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -505,11 +549,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,13 +570,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -572,7 +617,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -616,7 +661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -665,7 +710,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -709,7 +754,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1018,19 +1063,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
@@ -1109,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1119,12 +1164,14 @@
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="21" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
-      <c r="C8" s="25">
-        <v>43079</v>
+      <c r="C8" s="43" t="s">
+        <v>55</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1132,18 +1179,26 @@
     <row r="9" spans="1:7" ht="16.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="21" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
-      <c r="C9" s="25">
-        <v>43094</v>
+      <c r="C9" s="43" t="s">
+        <v>58</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="17.5" customHeight="1">
       <c r="A10" s="1"/>
+      <c r="B10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="25">
+        <v>43079</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1151,11 +1206,11 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="27" t="s">
-        <v>39</v>
+      <c r="B11" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>38</v>
+      <c r="C11" s="25">
+        <v>43094</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1218,11 +1273,11 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>49</v>
+      <c r="C18" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1231,11 +1286,11 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="29" t="s">
-        <v>40</v>
+      <c r="B19" s="28" t="s">
+        <v>38</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>41</v>
+      <c r="C19" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1244,11 +1299,11 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="29" t="s">
-        <v>42</v>
+      <c r="B20" s="28" t="s">
+        <v>40</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>50</v>
+      <c r="C20" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1257,11 +1312,11 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29" t="s">
-        <v>43</v>
+      <c r="B21" s="28" t="s">
+        <v>41</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>44</v>
+      <c r="C21" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1270,11 +1325,11 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="29" t="s">
-        <v>45</v>
+      <c r="B22" s="28" t="s">
+        <v>43</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>46</v>
+      <c r="C22" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1283,11 +1338,11 @@
     </row>
     <row r="23" spans="1:7" ht="28.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="31" t="s">
-        <v>47</v>
+      <c r="B23" s="30" t="s">
+        <v>45</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>52</v>
+      <c r="C23" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1296,11 +1351,11 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
-      <c r="B24" s="30" t="s">
-        <v>48</v>
+      <c r="B24" s="29" t="s">
+        <v>46</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>51</v>
+      <c r="C24" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -8040,18 +8095,15 @@
       <c r="G986" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"个人,冲绳东北六县多次,一定经济能力多次"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -8059,14 +8111,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -8080,52 +8132,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="38" t="str">
+      <c r="A3" s="37" t="e">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2017年12月10日 〜 2017年12月25日）</v>
+        <v>#VALUE!</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="38" t="str">
+      <c r="A4" s="37" t="str">
         <f>"（旅行参加者"&amp;MAX(A6:A15)&amp;"名、"&amp;"代表者"&amp;B6&amp;"、他"&amp;MAX(A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8308,55 +8360,55 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A17" s="35" t="str">
+      <c r="A17" s="34" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A18" s="35" t="str">
+      <c r="A18" s="34" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A19" s="35" t="str">
+      <c r="A19" s="34" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="73.25" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="7"/>
@@ -14219,11 +14271,11 @@
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14231,14 +14283,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
@@ -14247,55 +14299,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1">
-      <c r="A2" s="43" t="str">
+      <c r="A2" s="42" t="e">
         <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>（2017年12月10日 〜 2017年12月25日）</v>
+        <v>#VALUE!</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A3" s="40" t="str">
+      <c r="A3" s="39" t="str">
         <f>"（旅行参加者"&amp;MAX(査証人名簿!A6:A15)&amp;"名、"&amp;"代表者"&amp;査証人名簿!B6&amp;"、他"&amp;MAX(査証人名簿!A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="16" t="str">
         <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>43079</v>
+        <v>沖縄県,宮城県</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>43080</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>35</v>
@@ -14305,233 +14357,233 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>43081</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>43082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>43083</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>43084</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>43085</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>43086</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>43087</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>43088</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>43089</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>43090</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>43091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>43092</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>43093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="16" t="e">
         <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>43094</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A21" s="19" t="str">
+      <c r="A21" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+16&lt;=基本信息!C9,A5+16,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A22" s="19" t="str">
+      <c r="A22" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+17&lt;=基本信息!C9,A5+17,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1">
-      <c r="A23" s="19" t="str">
+      <c r="A23" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+18&lt;=基本信息!C9,A5+18,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A24" s="19" t="str">
+      <c r="A24" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+19&lt;=基本信息!C9,A5+19,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A25" s="19" t="str">
+      <c r="A25" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+20&lt;=基本信息!C9,A5+20,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A26" s="19" t="str">
+      <c r="A26" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+21&lt;=基本信息!C9,A5+21,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1">
-      <c r="A27" s="19" t="str">
+      <c r="A27" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+22&lt;=基本信息!C9,A5+22,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1">
-      <c r="A28" s="19" t="str">
+      <c r="A28" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+23&lt;=基本信息!C9,A5+23,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1">
-      <c r="A29" s="19" t="str">
+      <c r="A29" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+24&lt;=基本信息!C9,A5+24,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A30" s="19" t="str">
+      <c r="A30" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+25&lt;=基本信息!C9,A5+25,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
-      <c r="A31" s="19" t="str">
+      <c r="A31" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+26&lt;=基本信息!C9,A5+26,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A32" s="19" t="str">
+      <c r="A32" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+27&lt;=基本信息!C9,A5+27,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A33" s="19" t="str">
+      <c r="A33" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+28&lt;=基本信息!C9,A5+28,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="39.5" customHeight="1">
-      <c r="A34" s="19" t="str">
+      <c r="A34" s="19" t="e">
         <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="40.75" customHeight="1">
-      <c r="A35" s="20" t="str">
+      <c r="A35" s="20" t="e">
         <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -14542,33 +14594,33 @@
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="42" t="str">
+      <c r="A37" s="41" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="42" t="str">
+      <c r="A38" s="41" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="42" t="str">
+      <c r="A39" s="41" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
     </row>
     <row r="40" spans="1:3" ht="83.5" customHeight="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -19395,11 +19447,11 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -545,6 +545,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,7 +571,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1166,7 +1166,7 @@
       <c r="B8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1181,7 +1181,7 @@
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="32" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -8115,7 +8115,7 @@
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -8132,52 +8132,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="37" t="e">
-        <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>#VALUE!</v>
+      <c r="A3" s="38" t="str">
+        <f>"（"&amp;YEAR(基本信息!C10)&amp;"年"&amp;MONTH(基本信息!C10)&amp;"月"&amp;DAY(基本信息!C10)&amp;"日 〜 "&amp;YEAR(基本信息!C11)&amp;"年"&amp;MONTH(基本信息!C11)&amp;"月"&amp;DAY(基本信息!C11)&amp;"日）"</f>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="37" t="str">
+      <c r="A4" s="38" t="str">
         <f>"（旅行参加者"&amp;MAX(A6:A15)&amp;"名、"&amp;"代表者"&amp;B6&amp;"、他"&amp;MAX(A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -8360,55 +8360,55 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A17" s="34" t="str">
+      <c r="A17" s="35" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A18" s="34" t="str">
+      <c r="A18" s="35" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A19" s="34" t="str">
+      <c r="A19" s="35" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" ht="73.25" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="A21" s="7"/>
@@ -14287,7 +14287,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -14299,27 +14299,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1">
-      <c r="A2" s="42" t="e">
-        <f>"（"&amp;YEAR(基本信息!C8)&amp;"年"&amp;MONTH(基本信息!C8)&amp;"月"&amp;DAY(基本信息!C8)&amp;"日 〜 "&amp;YEAR(基本信息!C9)&amp;"年"&amp;MONTH(基本信息!C9)&amp;"月"&amp;DAY(基本信息!C9)&amp;"日）"</f>
-        <v>#VALUE!</v>
+      <c r="A2" s="43" t="str">
+        <f>"（"&amp;YEAR(基本信息!C10)&amp;"年"&amp;MONTH(基本信息!C10)&amp;"月"&amp;DAY(基本信息!C10)&amp;"日 〜 "&amp;YEAR(基本信息!C11)&amp;"年"&amp;MONTH(基本信息!C11)&amp;"月"&amp;DAY(基本信息!C11)&amp;"日）"</f>
+        <v>（2017年12月10日 〜 2017年12月25日）</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A3" s="39" t="str">
+      <c r="A3" s="40" t="str">
         <f>"（旅行参加者"&amp;MAX(査証人名簿!A6:A15)&amp;"名、"&amp;"代表者"&amp;査証人名簿!B6&amp;"、他"&amp;MAX(査証人名簿!A6:A15)-1&amp;"名）"</f>
         <v>（旅行参加者1名、代表者王利、他0名）</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -14594,28 +14594,28 @@
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="41" t="str">
+      <c r="A37" s="42" t="str">
         <f>"公司名称："&amp;基本信息!C3</f>
         <v>公司名称：北京新日国際旅行社有限公司成都分公司</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="41" t="str">
+      <c r="A38" s="42" t="str">
         <f>"担当者："&amp;基本信息!C5</f>
         <v>担当者：小利</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="41" t="str">
+      <c r="A39" s="42" t="str">
         <f>"电话："&amp;基本信息!C6</f>
         <v>电话：0000-88983820</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:3" ht="83.5" customHeight="1">
       <c r="A40" s="7"/>

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -14287,7 +14287,7 @@
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -14333,9 +14333,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
-      <c r="A5" s="16" t="str">
-        <f>IF(AND(LEN(基本信息!C8),LEN(基本信息!C8)),基本信息!C8,"")</f>
-        <v>沖縄県,宮城県</v>
+      <c r="A5" s="16">
+        <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>52</v>
@@ -14345,9 +14344,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A6" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C9,A5+1,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A6" s="16">
+        <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>35</v>
@@ -14357,234 +14355,175 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A7" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C9,A5+2,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A7" s="16">
+        <v>43081</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A8" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C9,A5+3,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A8" s="16">
+        <v>43082</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1">
-      <c r="A9" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C9,A5+4,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A9" s="16">
+        <v>43083</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1">
-      <c r="A10" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C9,A5+5,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A10" s="16">
+        <v>43084</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A11" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C9,A5+6,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A11" s="16">
+        <v>43085</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A12" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C9,A5+7,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A12" s="16">
+        <v>43086</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A13" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C9,A5+8,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A13" s="16">
+        <v>43087</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1">
-      <c r="A14" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C9,A5+9,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A14" s="16">
+        <v>43088</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C9,A5+10,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A15" s="16">
+        <v>43089</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A16" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C9,A5+11,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A16" s="16">
+        <v>43090</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A17" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C9,A5+12,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A17" s="16">
+        <v>43091</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A18" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C9,A5+13,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A18" s="16">
+        <v>43092</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A19" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C9,A5+14,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A19" s="16">
+        <v>43093</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A20" s="16" t="e">
-        <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C9,A5+15,""),"")</f>
-        <v>#VALUE!</v>
+      <c r="A20" s="16">
+        <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A21" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+16&lt;=基本信息!C9,A5+16,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A21" s="19"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A22" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+17&lt;=基本信息!C9,A5+17,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A22" s="19"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1">
-      <c r="A23" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+18&lt;=基本信息!C9,A5+18,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A23" s="19"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A24" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+19&lt;=基本信息!C9,A5+19,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A24" s="19"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A25" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+20&lt;=基本信息!C9,A5+20,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A25" s="19"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A26" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+21&lt;=基本信息!C9,A5+21,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A26" s="19"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1">
-      <c r="A27" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+22&lt;=基本信息!C9,A5+22,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A27" s="19"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1">
-      <c r="A28" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+23&lt;=基本信息!C9,A5+23,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A28" s="19"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1">
-      <c r="A29" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+24&lt;=基本信息!C9,A5+24,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A29" s="19"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A30" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+25&lt;=基本信息!C9,A5+25,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A30" s="19"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
-      <c r="A31" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+26&lt;=基本信息!C9,A5+26,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A31" s="19"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A32" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+27&lt;=基本信息!C9,A5+27,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A32" s="19"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A33" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+28&lt;=基本信息!C9,A5+28,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A33" s="19"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="39.5" customHeight="1">
-      <c r="A34" s="19" t="e">
-        <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C9,A5+29,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A34" s="19"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="40.75" customHeight="1">
-      <c r="A35" s="20" t="e">
-        <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C9,A5+30,""),"")</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="A35" s="20"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
     </row>

--- a/public/individual_jcic.xlsx
+++ b/public/individual_jcic.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="540" windowWidth="22400" windowHeight="10060"/>
+    <workbookView xWindow="220" yWindow="540" windowWidth="22400" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -251,8 +254,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -379,12 +382,18 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,8 +406,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -473,12 +488,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,13 +599,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="23" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -617,7 +648,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -661,7 +692,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -710,7 +741,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -754,7 +785,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -775,6 +806,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="基本信息"/>
+      <sheetName val="査証人名簿"/>
+      <sheetName val="滞在予定表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="11">
+          <cell r="C11">
+            <v>43094</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,14 +1117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -8103,7 +8157,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -8111,14 +8165,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -14275,7 +14329,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14283,14 +14337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
@@ -14334,6 +14388,7 @@
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="16">
+        <f>IF(AND(LEN(基本信息!C10),LEN(基本信息!C10)),基本信息!C10,"")</f>
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -14345,6 +14400,7 @@
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
       <c r="A6" s="16">
+        <f>IF(LEN(A5),IF(A5+1&lt;=基本信息!C11,A5+1,""),"")</f>
         <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -14355,175 +14411,234 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="44">
+        <f>IF(LEN(A5),IF(A5+2&lt;=基本信息!C11,A5+2,""),"")</f>
         <v>43081</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="44">
+        <f>IF(LEN(A5),IF(A5+3&lt;=基本信息!C11,A5+3,""),"")</f>
         <v>43082</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="44">
+        <f>IF(LEN(A5),IF(A5+4&lt;=基本信息!C11,A5+4,""),"")</f>
         <v>43083</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="44">
+        <f>IF(LEN(A5),IF(A5+5&lt;=基本信息!C11,A5+5,""),"")</f>
         <v>43084</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
     </row>
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="44">
+        <f>IF(LEN(A5),IF(A5+6&lt;=基本信息!C11,A5+6,""),"")</f>
         <v>43085</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="44">
+        <f>IF(LEN(A5),IF(A5+7&lt;=基本信息!C11,A5+7,""),"")</f>
         <v>43086</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="44">
+        <f>IF(LEN(A5),IF(A5+8&lt;=基本信息!C11,A5+8,""),"")</f>
         <v>43087</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="44">
+        <f>IF(LEN(A5),IF(A5+9&lt;=基本信息!C11,A5+9,""),"")</f>
         <v>43088</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="44">
+        <f>IF(LEN(A5),IF(A5+10&lt;=基本信息!C11,A5+10,""),"")</f>
         <v>43089</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="44">
+        <f>IF(LEN(A5),IF(A5+11&lt;=基本信息!C11,A5+11,""),"")</f>
         <v>43090</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="44">
+        <f>IF(LEN(A5),IF(A5+12&lt;=基本信息!C11,A5+12,""),"")</f>
         <v>43091</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="44">
+        <f>IF(LEN(A5),IF(A5+13&lt;=基本信息!C11,A5+13,""),"")</f>
         <v>43092</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="44">
+        <f>IF(LEN(A5),IF(A5+14&lt;=基本信息!C11,A5+14,""),"")</f>
         <v>43093</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="44">
+        <f>IF(LEN(A5),IF(A5+15&lt;=基本信息!C11,A5+15,""),"")</f>
         <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+16&lt;=基本信息!C11,A5+16,""),"")</f>
+        <v/>
+      </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+17&lt;=基本信息!C11,A5+17,""),"")</f>
+        <v/>
+      </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+18&lt;=基本信息!C11,A5+18,""),"")</f>
+        <v/>
+      </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+19&lt;=基本信息!C11,A5+19,""),"")</f>
+        <v/>
+      </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A25" s="19"/>
+      <c r="A25" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+20&lt;=基本信息!C11,A5+20,""),"")</f>
+        <v/>
+      </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A26" s="19"/>
+      <c r="A26" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+21&lt;=基本信息!C11,A5+21,""),"")</f>
+        <v/>
+      </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1">
-      <c r="A27" s="19"/>
+      <c r="A27" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+22&lt;=基本信息!C11,A5+22,""),"")</f>
+        <v/>
+      </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1">
-      <c r="A28" s="19"/>
+      <c r="A28" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+23&lt;=[1]基本信息!C11,A5+23,""),"")</f>
+        <v/>
+      </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1">
-      <c r="A29" s="19"/>
+      <c r="A29" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+24&lt;=基本信息!C11,A5+24,""),"")</f>
+        <v/>
+      </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A30" s="19"/>
+      <c r="A30" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+25&lt;=基本信息!C11,A5+25,""),"")</f>
+        <v/>
+      </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
-      <c r="A31" s="19"/>
+      <c r="A31" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+26&lt;=基本信息!C11,A5+26,""),"")</f>
+        <v/>
+      </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A32" s="19"/>
+      <c r="A32" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+27&lt;=基本信息!C11,A5+27,""),"")</f>
+        <v/>
+      </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A33" s="19"/>
+      <c r="A33" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+28&lt;=基本信息!C11,A5+28,""),"")</f>
+        <v/>
+      </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="39.5" customHeight="1">
-      <c r="A34" s="19"/>
+      <c r="A34" s="19" t="str">
+        <f>IF(LEN(A5),IF(A5+29&lt;=基本信息!C11,A5+29,""),"")</f>
+        <v/>
+      </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="40.75" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="20" t="str">
+        <f>IF(LEN(A5),IF(A5+30&lt;=基本信息!C11,A5+30,""),"")</f>
+        <v/>
+      </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
     </row>
@@ -19390,7 +19505,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
